--- a/medicine/Pharmacie/Élixir_(pharmacie)/Élixir_(pharmacie).xlsx
+++ b/medicine/Pharmacie/Élixir_(pharmacie)/Élixir_(pharmacie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lixir_(pharmacie)</t>
+          <t>Élixir_(pharmacie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme pharmaceutique d’élixir est tombé en désuétude. Il pouvait désigner, dans son acception la plus générale, toute liqueur médicamenteuse, dans une acception plus spécifique une préparation à base de sirop de sucre dissous dans l'alcool ou chez les romantiques une drogue censée posséder des vertus magiques comme l'élixir de longue vie ou d'amour.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lixir_(pharmacie)</t>
+          <t>Élixir_(pharmacie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le substantif masculin[1],[2],[3] « élixir » est un emprunt[1],[2], par l'intermédiaire du latin médiéval elixir[1],[2], à l'arabe اَلْإِكْسِير / al-ʾiksīr[1],[2],[3], désignant la « pierre philosophale »[1],[2] mais aussi une « sorte de médicament »[1],[3], lui-même emprunté au grec[1],[2] ξηρίον[2] / xêrion[1], désignant une « poudre siccative »[1],[2] qui était mise sur les blessures[2], dérivé de ξηρός / xêrós (« sec »)[2]. Le latin médiéval elixir est attesté en 1144[2] ; la graphie ‹ exir ›, à la fin XIIe siècle chez Gérard de Crémone[2] ; et les graphies ‹ elexis › et ‹ elexir ›, vers 1254[2] chez Vincent de Beauvais[2]. En français, « élixir » est attesté au XIIIe siècle[1] : d'après le Trésor de la langue française informatisé, sa plus ancienne occurrence connue se trouve dans le Roman de la Rose de Jean de Meung, daté de vers 1269-1278[2]. La latin médiéval elixir a également donné l'italien elisir[4], l'espagnol elixir[5], l'anglais elixir[6] et l'allemand Elixier[7].
-Selon Lemery, le mot élixir serait venu du grec eleo, « je porte secours », et alexo, « j'extrais ». Mais Bloch et Wartburg[8] le disent emprunté, par les alchimistes, de l'arabe al-iksir, nom de la pierre philosophale, lui-même emprunté du grec ksêron, « médicament de poudre sèche ». Depuis Paracelse selon certains, les pharmaciens lui ont donné le tout autre sens de « liquide distillé » ou de « solution dans l’alcool ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le substantif masculin « élixir » est un emprunt par l'intermédiaire du latin médiéval elixir à l'arabe اَلْإِكْسِير / al-ʾiksīr désignant la « pierre philosophale », mais aussi une « sorte de médicament » lui-même emprunté au grec, ξηρίον / xêrion, désignant une « poudre siccative », qui était mise sur les blessures, dérivé de ξηρός / xêrós (« sec »). Le latin médiéval elixir est attesté en 1144 ; la graphie ‹ exir ›, à la fin XIIe siècle chez Gérard de Crémone ; et les graphies ‹ elexis › et ‹ elexir ›, vers 1254 chez Vincent de Beauvais. En français, « élixir » est attesté au XIIIe siècle : d'après le Trésor de la langue française informatisé, sa plus ancienne occurrence connue se trouve dans le Roman de la Rose de Jean de Meung, daté de vers 1269-1278. La latin médiéval elixir a également donné l'italien elisir, l'espagnol elixir, l'anglais elixir et l'allemand Elixier.
+Selon Lemery, le mot élixir serait venu du grec eleo, « je porte secours », et alexo, « j'extrais ». Mais Bloch et Wartburg le disent emprunté, par les alchimistes, de l'arabe al-iksir, nom de la pierre philosophale, lui-même emprunté du grec ksêron, « médicament de poudre sèche ». Depuis Paracelse selon certains, les pharmaciens lui ont donné le tout autre sens de « liquide distillé » ou de « solution dans l’alcool ».
 Ainsi a-t-on donné ce nom à des médicaments composés de substances dissoutes dans l'alcool ou, parfois, dans d'autres solvants.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lixir_(pharmacie)</t>
+          <t>Élixir_(pharmacie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,17 @@
           <t>Quelques élixirs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Élixir alkermès
 Élixir amer de Périlhe (contre les écrouelles, scrofules ou humeurs froides)
-Élixir américain de Courcelles[9].
+Élixir américain de Courcelles.
 Élixir antigoutteux de Villette
 Élixir antipestilentiel de Spina
 Élixir antiseptique  de Chaussier
-Élixir de camphre[10]
+Élixir de camphre
 Élixir de citron
 Élixir cordial
 Élixir pour les dents
@@ -561,7 +577,7 @@
 Élixir parégorique (pour la diarrhée)
 Élixir de propriété de Paracelse
 Élixir du révérend Père Gaucher
-Élixir de Stougthon (ou grand élixir cordial, ou gouttes d'Angleterre)[11]
+Élixir de Stougthon (ou grand élixir cordial, ou gouttes d'Angleterre)
 Élixir de longue vie de Matthiole
 Élixir du Suédois</t>
         </is>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lixir_(pharmacie)</t>
+          <t>Élixir_(pharmacie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Arts et littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
